--- a/Data/EUDA/Cannabis_detaille/frequence_conso_global.xlsx
+++ b/Data/EUDA/Cannabis_detaille/frequence_conso_global.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Daily.global</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>4 to 6 days per week.global</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>4 to 6 days per week</t>
+          <t>2 to 3 days per week.global</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2 to 3 days per week</t>
+          <t>Once a week or less.global</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Once a week or less</t>
+          <t>Not used in the last 30 days.global</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Not used in the last 30 days</t>
+          <t>Not known / missing.global</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>Total.global</t>
         </is>
       </c>
     </row>
@@ -487,27 +482,24 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>340</v>
       </c>
       <c r="C2" t="n">
-        <v>340</v>
+        <v>141</v>
       </c>
       <c r="D2" t="n">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="E2" t="n">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F2" t="n">
-        <v>122</v>
+        <v>368</v>
       </c>
       <c r="G2" t="n">
-        <v>368</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I2" t="n">
         <v>1124</v>
       </c>
     </row>
@@ -518,27 +510,24 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>1918</v>
       </c>
       <c r="C3" t="n">
-        <v>1918</v>
+        <v>256</v>
       </c>
       <c r="D3" t="n">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="E3" t="n">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="F3" t="n">
-        <v>248</v>
+        <v>488</v>
       </c>
       <c r="G3" t="n">
-        <v>488</v>
+        <v>299</v>
       </c>
       <c r="H3" t="n">
-        <v>299</v>
-      </c>
-      <c r="I3" t="n">
         <v>3501</v>
       </c>
     </row>
@@ -549,27 +538,24 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>44</v>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
-      </c>
-      <c r="I4" t="n">
         <v>109</v>
       </c>
     </row>
@@ -580,25 +566,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>72</v>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
-      </c>
-      <c r="D5" t="n">
         <v>94</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>89</v>
+      </c>
       <c r="F5" t="n">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="G5" t="n">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>36</v>
-      </c>
-      <c r="I5" t="n">
         <v>478</v>
       </c>
     </row>
@@ -609,27 +592,24 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>108</v>
       </c>
       <c r="C6" t="n">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F6" t="n">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="G6" t="n">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
-      </c>
-      <c r="I6" t="n">
         <v>340</v>
       </c>
     </row>
@@ -640,27 +620,24 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>335</v>
       </c>
       <c r="C7" t="n">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="E7" t="n">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="F7" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G7" t="n">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="H7" t="n">
-        <v>162</v>
-      </c>
-      <c r="I7" t="n">
         <v>1072</v>
       </c>
     </row>
@@ -671,25 +648,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="C8" t="n">
-        <v>2012</v>
+        <v>378</v>
       </c>
       <c r="D8" t="n">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="E8" t="n">
-        <v>354</v>
-      </c>
-      <c r="F8" t="n">
         <v>200</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>141</v>
+      </c>
       <c r="H8" t="n">
-        <v>141</v>
-      </c>
-      <c r="I8" t="n">
         <v>3085</v>
       </c>
     </row>
@@ -700,25 +674,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
         <v>26</v>
       </c>
     </row>
@@ -729,27 +700,24 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
         <v>5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
-      </c>
-      <c r="I10" t="n">
         <v>62</v>
       </c>
     </row>
@@ -766,7 +734,6 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -775,27 +742,24 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>6851</v>
       </c>
       <c r="C12" t="n">
-        <v>6851</v>
+        <v>2052</v>
       </c>
       <c r="D12" t="n">
-        <v>2052</v>
+        <v>2651</v>
       </c>
       <c r="E12" t="n">
-        <v>2651</v>
+        <v>2006</v>
       </c>
       <c r="F12" t="n">
-        <v>2006</v>
+        <v>5981</v>
       </c>
       <c r="G12" t="n">
-        <v>5981</v>
+        <v>3687</v>
       </c>
       <c r="H12" t="n">
-        <v>3687</v>
-      </c>
-      <c r="I12" t="n">
         <v>23228</v>
       </c>
     </row>
@@ -806,27 +770,24 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>456</v>
       </c>
       <c r="C13" t="n">
-        <v>456</v>
+        <v>187</v>
       </c>
       <c r="D13" t="n">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F13" t="n">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G13" t="n">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
-      </c>
-      <c r="I13" t="n">
         <v>989</v>
       </c>
     </row>
@@ -837,27 +798,24 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>260</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="D14" t="n">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="F14" t="n">
-        <v>439</v>
+        <v>1715</v>
       </c>
       <c r="G14" t="n">
-        <v>1715</v>
+        <v>90</v>
       </c>
       <c r="H14" t="n">
-        <v>90</v>
-      </c>
-      <c r="I14" t="n">
         <v>2743</v>
       </c>
     </row>
@@ -868,27 +826,24 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>1182</v>
       </c>
       <c r="C15" t="n">
-        <v>1182</v>
+        <v>188</v>
       </c>
       <c r="D15" t="n">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="E15" t="n">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="F15" t="n">
-        <v>108</v>
+        <v>434</v>
       </c>
       <c r="G15" t="n">
-        <v>434</v>
+        <v>71</v>
       </c>
       <c r="H15" t="n">
-        <v>71</v>
-      </c>
-      <c r="I15" t="n">
         <v>2184</v>
       </c>
     </row>
@@ -899,27 +854,24 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>2244</v>
       </c>
       <c r="C16" t="n">
-        <v>2244</v>
+        <v>526</v>
       </c>
       <c r="D16" t="n">
-        <v>526</v>
+        <v>931</v>
       </c>
       <c r="E16" t="n">
-        <v>931</v>
+        <v>444</v>
       </c>
       <c r="F16" t="n">
-        <v>444</v>
+        <v>1341</v>
       </c>
       <c r="G16" t="n">
-        <v>1341</v>
+        <v>2030</v>
       </c>
       <c r="H16" t="n">
-        <v>2030</v>
-      </c>
-      <c r="I16" t="n">
         <v>7516</v>
       </c>
     </row>
@@ -930,27 +882,24 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>43</v>
       </c>
       <c r="C17" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F17" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="G17" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="H17" t="n">
-        <v>17</v>
-      </c>
-      <c r="I17" t="n">
         <v>241</v>
       </c>
     </row>
@@ -961,19 +910,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C18" t="n">
         <v>11</v>
       </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
       <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
         <v>14</v>
       </c>
     </row>
@@ -984,27 +930,24 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>46</v>
       </c>
       <c r="C19" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I19" t="n">
         <v>108</v>
       </c>
     </row>
@@ -1015,25 +958,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>141</v>
       </c>
       <c r="C20" t="n">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
-      </c>
-      <c r="G20" t="n">
         <v>26</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
         <v>233</v>
       </c>
     </row>
@@ -1044,27 +984,24 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>2778</v>
       </c>
       <c r="C21" t="n">
-        <v>2778</v>
+        <v>462</v>
       </c>
       <c r="D21" t="n">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F21" t="n">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="G21" t="n">
-        <v>251</v>
+        <v>1656</v>
       </c>
       <c r="H21" t="n">
-        <v>1656</v>
-      </c>
-      <c r="I21" t="n">
         <v>5202</v>
       </c>
     </row>
@@ -1075,23 +1012,20 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2012</v>
-      </c>
-      <c r="C22" t="n">
         <v>352</v>
       </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>82</v>
+      </c>
       <c r="F22" t="n">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="G22" t="n">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>20</v>
-      </c>
-      <c r="I22" t="n">
         <v>656</v>
       </c>
     </row>
@@ -1102,27 +1036,24 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>591</v>
       </c>
       <c r="C23" t="n">
-        <v>591</v>
+        <v>186</v>
       </c>
       <c r="D23" t="n">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="E23" t="n">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="F23" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="G23" t="n">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="H23" t="n">
-        <v>35</v>
-      </c>
-      <c r="I23" t="n">
         <v>1165</v>
       </c>
     </row>
@@ -1133,27 +1064,24 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>600</v>
       </c>
       <c r="C24" t="n">
-        <v>600</v>
+        <v>75</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="E24" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F24" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="H24" t="n">
-        <v>284</v>
-      </c>
-      <c r="I24" t="n">
         <v>1238</v>
       </c>
     </row>
@@ -1164,27 +1092,24 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>208</v>
       </c>
       <c r="C25" t="n">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="D25" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="E25" t="n">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="F25" t="n">
-        <v>271</v>
+        <v>1209</v>
       </c>
       <c r="G25" t="n">
-        <v>1209</v>
+        <v>68</v>
       </c>
       <c r="H25" t="n">
-        <v>68</v>
-      </c>
-      <c r="I25" t="n">
         <v>1976</v>
       </c>
     </row>
@@ -1195,27 +1120,24 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>115</v>
       </c>
       <c r="C26" t="n">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="D26" t="n">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E26" t="n">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="F26" t="n">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="G26" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H26" t="n">
-        <v>64</v>
-      </c>
-      <c r="I26" t="n">
         <v>514</v>
       </c>
     </row>
@@ -1226,27 +1148,24 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
         <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1257,27 +1176,24 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>8199</v>
       </c>
       <c r="C28" t="n">
-        <v>8199</v>
+        <v>595</v>
       </c>
       <c r="D28" t="n">
-        <v>595</v>
+        <v>820</v>
       </c>
       <c r="E28" t="n">
-        <v>820</v>
+        <v>607</v>
       </c>
       <c r="F28" t="n">
-        <v>607</v>
+        <v>1712</v>
       </c>
       <c r="G28" t="n">
-        <v>1712</v>
+        <v>417</v>
       </c>
       <c r="H28" t="n">
-        <v>417</v>
-      </c>
-      <c r="I28" t="n">
         <v>12350</v>
       </c>
     </row>
@@ -1288,27 +1204,24 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>22</v>
       </c>
       <c r="C29" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
         <v>4</v>
       </c>
-      <c r="E29" t="n">
-        <v>2</v>
-      </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
-      </c>
-      <c r="I29" t="n">
         <v>43</v>
       </c>
     </row>
@@ -1319,27 +1232,24 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>613</v>
       </c>
       <c r="C30" t="n">
-        <v>613</v>
+        <v>174</v>
       </c>
       <c r="D30" t="n">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="E30" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F30" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
         <v>946</v>
       </c>
     </row>
@@ -1352,7 +1262,6 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1367,7 +1276,6 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1382,7 +1290,6 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1397,7 +1304,6 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1412,7 +1318,6 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1427,7 +1332,6 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1442,7 +1346,6 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
